--- a/medicine/Mort/Cimetière_Alexandre_Nevski_à_Tartu/Cimetière_Alexandre_Nevski_à_Tartu.xlsx
+++ b/medicine/Mort/Cimetière_Alexandre_Nevski_à_Tartu/Cimetière_Alexandre_Nevski_à_Tartu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Alexandre_Nevski_%C3%A0_Tartu</t>
+          <t>Cimetière_Alexandre_Nevski_à_Tartu</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière Aleksander Nevski (en estonien : Tartu Aleksander Nevski kalmistu) est un cimetière de Tartu en Estonie[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière Aleksander Nevski (en estonien : Tartu Aleksander Nevski kalmistu) est un cimetière de Tartu en Estonie. 
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Alexandre_Nevski_%C3%A0_Tartu</t>
+          <t>Cimetière_Alexandre_Nevski_à_Tartu</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière fait actuellement partie du cimetière de Saint-Paul, dans son coin sud-est.
-La paroisse orthodoxe Alexandre Nevsky a été fondée en 1914. L'église Saint-Alexandre a été construite dans la rue Sõbra tänav en 1914-1915. En 1917, une demande a été faite pour un terrain à côté du cimetière de Saint-Paul pour y créer le cimetière paroissial Alexandre Nevsky, et un plan de cimetière a été élaboré[1].
-Le cimetière a un tracé régulier, avec une végétation haute clairsemée, constituée principalement d’arbres à feuilles caduques. Du côté de la rue Võru tänav, il y a une simple porte métallique fixée à des poteaux en béton et une clôture métallique. Le côté sud du cimetière est délimité en partie par une clôture forgée, en partie par une clôture en tôle[1].
-La chapelle construite entre 1919 et 1921 est bien conservée[1].
+La paroisse orthodoxe Alexandre Nevsky a été fondée en 1914. L'église Saint-Alexandre a été construite dans la rue Sõbra tänav en 1914-1915. En 1917, une demande a été faite pour un terrain à côté du cimetière de Saint-Paul pour y créer le cimetière paroissial Alexandre Nevsky, et un plan de cimetière a été élaboré.
+Le cimetière a un tracé régulier, avec une végétation haute clairsemée, constituée principalement d’arbres à feuilles caduques. Du côté de la rue Võru tänav, il y a une simple porte métallique fixée à des poteaux en béton et une clôture métallique. Le côté sud du cimetière est délimité en partie par une clôture forgée, en partie par une clôture en tôle.
+La chapelle construite entre 1919 et 1921 est bien conservée.
 </t>
         </is>
       </c>
